--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N2">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O2">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P2">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q2">
-        <v>1276.021082085708</v>
+        <v>2185.2759139574</v>
       </c>
       <c r="R2">
-        <v>11484.18973877138</v>
+        <v>19667.4832256166</v>
       </c>
       <c r="S2">
-        <v>0.01649607654421487</v>
+        <v>0.01995340430293902</v>
       </c>
       <c r="T2">
-        <v>0.01649607654421487</v>
+        <v>0.01995340430293902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H3">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N3">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O3">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P3">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q3">
-        <v>2601.533841958145</v>
+        <v>2688.87118231655</v>
       </c>
       <c r="R3">
-        <v>23413.8045776233</v>
+        <v>24199.84064084895</v>
       </c>
       <c r="S3">
-        <v>0.03363196893201833</v>
+        <v>0.02455165202554357</v>
       </c>
       <c r="T3">
-        <v>0.03363196893201833</v>
+        <v>0.02455165202554357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H4">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N4">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O4">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P4">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q4">
-        <v>3817.80747481175</v>
+        <v>3775.0972855343</v>
       </c>
       <c r="R4">
-        <v>34360.26727330575</v>
+        <v>33975.8755698087</v>
       </c>
       <c r="S4">
-        <v>0.04935564562352593</v>
+        <v>0.03446980856746034</v>
       </c>
       <c r="T4">
-        <v>0.04935564562352594</v>
+        <v>0.03446980856746034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H5">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N5">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O5">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P5">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q5">
-        <v>1819.641343500266</v>
+        <v>1204.95438081975</v>
       </c>
       <c r="R5">
-        <v>16376.77209150239</v>
+        <v>10844.58942737775</v>
       </c>
       <c r="S5">
-        <v>0.02352386124869854</v>
+        <v>0.01100224542518008</v>
       </c>
       <c r="T5">
-        <v>0.02352386124869854</v>
+        <v>0.01100224542518008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H6">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N6">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O6">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P6">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q6">
-        <v>2800.002714749834</v>
+        <v>3019.651328279299</v>
       </c>
       <c r="R6">
-        <v>25200.02443274851</v>
+        <v>27176.86195451369</v>
       </c>
       <c r="S6">
-        <v>0.03619772412460835</v>
+        <v>0.02757195254943823</v>
       </c>
       <c r="T6">
-        <v>0.03619772412460835</v>
+        <v>0.02757195254943823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H7">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N7">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O7">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P7">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q7">
-        <v>3822.835573224553</v>
+        <v>4025.9794590246</v>
       </c>
       <c r="R7">
-        <v>34405.52015902098</v>
+        <v>36233.8151312214</v>
       </c>
       <c r="S7">
-        <v>0.0494206476030809</v>
+        <v>0.03676057350385986</v>
       </c>
       <c r="T7">
-        <v>0.0494206476030809</v>
+        <v>0.03676057350385987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N8">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O8">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P8">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q8">
-        <v>1176.034240655366</v>
+        <v>1948.62324502067</v>
       </c>
       <c r="R8">
-        <v>10584.30816589829</v>
+        <v>17537.60920518603</v>
       </c>
       <c r="S8">
-        <v>0.01520347204668321</v>
+        <v>0.01779256669314134</v>
       </c>
       <c r="T8">
-        <v>0.01520347204668321</v>
+        <v>0.01779256669314134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N9">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O9">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P9">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q9">
         <v>2397.682075413376</v>
@@ -1013,10 +1013,10 @@
         <v>21579.13867872038</v>
       </c>
       <c r="S9">
-        <v>0.03099662505580323</v>
+        <v>0.02189285093706737</v>
       </c>
       <c r="T9">
-        <v>0.03099662505580323</v>
+        <v>0.02189285093706737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N10">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O10">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P10">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q10">
-        <v>3518.650575325712</v>
+        <v>3366.276210624986</v>
       </c>
       <c r="R10">
-        <v>31667.8551779314</v>
+        <v>30296.48589562488</v>
       </c>
       <c r="S10">
-        <v>0.04548822118835488</v>
+        <v>0.03073692882301875</v>
       </c>
       <c r="T10">
-        <v>0.04548822118835488</v>
+        <v>0.03073692882301875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N11">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O11">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P11">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q11">
-        <v>1677.057343104858</v>
+        <v>1074.46483103489</v>
       </c>
       <c r="R11">
-        <v>15093.51608794372</v>
+        <v>9670.183479314011</v>
       </c>
       <c r="S11">
-        <v>0.02168057149626087</v>
+        <v>0.009810766249696633</v>
       </c>
       <c r="T11">
-        <v>0.02168057149626088</v>
+        <v>0.009810766249696633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N12">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O12">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P12">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q12">
-        <v>2580.599264936443</v>
+        <v>2692.640655836786</v>
       </c>
       <c r="R12">
-        <v>23225.39338442798</v>
+        <v>24233.76590253107</v>
       </c>
       <c r="S12">
-        <v>0.03336133203595208</v>
+        <v>0.02458607048441098</v>
       </c>
       <c r="T12">
-        <v>0.03336133203595208</v>
+        <v>0.02458607048441098</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N13">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O13">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P13">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q13">
-        <v>3523.28468049988</v>
+        <v>3589.989304199145</v>
       </c>
       <c r="R13">
-        <v>31709.56212449892</v>
+        <v>32309.9037377923</v>
       </c>
       <c r="S13">
-        <v>0.04554812972336283</v>
+        <v>0.03277961724301908</v>
       </c>
       <c r="T13">
-        <v>0.04554812972336283</v>
+        <v>0.03277961724301908</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H14">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I14">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J14">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N14">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O14">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P14">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q14">
-        <v>1191.452483784587</v>
+        <v>3040.256551375659</v>
       </c>
       <c r="R14">
-        <v>10723.07235406128</v>
+        <v>27362.30896238093</v>
       </c>
       <c r="S14">
-        <v>0.01540279517888508</v>
+        <v>0.02776009554070443</v>
       </c>
       <c r="T14">
-        <v>0.01540279517888508</v>
+        <v>0.02776009554070443</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H15">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I15">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J15">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N15">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O15">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P15">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q15">
-        <v>2429.116572732686</v>
+        <v>3740.881494931659</v>
       </c>
       <c r="R15">
-        <v>21862.04915459418</v>
+        <v>33667.93345438493</v>
       </c>
       <c r="S15">
-        <v>0.03140300225535598</v>
+        <v>0.03415738966462128</v>
       </c>
       <c r="T15">
-        <v>0.03140300225535598</v>
+        <v>0.03415738966462128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H16">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I16">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J16">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N16">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O16">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P16">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q16">
-        <v>3564.781383580846</v>
+        <v>5252.089304202097</v>
       </c>
       <c r="R16">
-        <v>32083.03245222761</v>
+        <v>47268.80373781887</v>
       </c>
       <c r="S16">
-        <v>0.04608458856402499</v>
+        <v>0.0479559860851187</v>
       </c>
       <c r="T16">
-        <v>0.04608458856402499</v>
+        <v>0.0479559860851187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H17">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I17">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J17">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N17">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O17">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P17">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q17">
-        <v>1699.04418410298</v>
+        <v>1676.388060197811</v>
       </c>
       <c r="R17">
-        <v>15291.39765692682</v>
+        <v>15087.4925417803</v>
       </c>
       <c r="S17">
-        <v>0.02196481179382527</v>
+        <v>0.01530683083088183</v>
       </c>
       <c r="T17">
-        <v>0.02196481179382528</v>
+        <v>0.01530683083088183</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H18">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I18">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J18">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N18">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O18">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P18">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q18">
-        <v>2614.431874150019</v>
+        <v>4201.078076701996</v>
       </c>
       <c r="R18">
-        <v>23529.88686735018</v>
+        <v>37809.70269031797</v>
       </c>
       <c r="S18">
-        <v>0.03379871141714964</v>
+        <v>0.038359370932179</v>
       </c>
       <c r="T18">
-        <v>0.03379871141714964</v>
+        <v>0.038359370932179</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H19">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I19">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J19">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N19">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O19">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P19">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q19">
-        <v>3569.476243584926</v>
+        <v>5601.128144883758</v>
       </c>
       <c r="R19">
-        <v>32125.28619226433</v>
+        <v>50410.15330395383</v>
       </c>
       <c r="S19">
-        <v>0.04614528252204728</v>
+        <v>0.05114300382556411</v>
       </c>
       <c r="T19">
-        <v>0.04614528252204728</v>
+        <v>0.05114300382556412</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H20">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I20">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J20">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N20">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O20">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P20">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q20">
-        <v>589.9956132999494</v>
+        <v>407.2690780543276</v>
       </c>
       <c r="R20">
-        <v>5309.960519699544</v>
+        <v>3665.421702488948</v>
       </c>
       <c r="S20">
-        <v>0.007627313478111672</v>
+        <v>0.003718708709778807</v>
       </c>
       <c r="T20">
-        <v>0.007627313478111672</v>
+        <v>0.003718708709778807</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H21">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I21">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J21">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N21">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O21">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P21">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q21">
-        <v>1202.874761361954</v>
+        <v>501.1239452347979</v>
       </c>
       <c r="R21">
-        <v>10825.87285225759</v>
+        <v>4510.115507113182</v>
       </c>
       <c r="S21">
-        <v>0.01555045948308101</v>
+        <v>0.004575682467046456</v>
       </c>
       <c r="T21">
-        <v>0.01555045948308101</v>
+        <v>0.004575682467046456</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H22">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I22">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J22">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N22">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O22">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P22">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q22">
-        <v>1765.244864826922</v>
+        <v>703.5635094063095</v>
       </c>
       <c r="R22">
-        <v>15887.2037834423</v>
+        <v>6332.071584656786</v>
       </c>
       <c r="S22">
-        <v>0.02282063738466605</v>
+        <v>0.006424125697956329</v>
       </c>
       <c r="T22">
-        <v>0.02282063738466605</v>
+        <v>0.006424125697956329</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H23">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I23">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J23">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N23">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O23">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P23">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q23">
-        <v>841.3500572338291</v>
+        <v>224.5669101277383</v>
       </c>
       <c r="R23">
-        <v>7572.150515104462</v>
+        <v>2021.102191149645</v>
       </c>
       <c r="S23">
-        <v>0.01087675990581837</v>
+        <v>0.002050484482175043</v>
       </c>
       <c r="T23">
-        <v>0.01087675990581837</v>
+        <v>0.002050484482175043</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H24">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I24">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J24">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N24">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O24">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P24">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q24">
-        <v>1294.641085576821</v>
+        <v>562.7713208474095</v>
       </c>
       <c r="R24">
-        <v>11651.76977019139</v>
+        <v>5064.941887626685</v>
       </c>
       <c r="S24">
-        <v>0.01673679122139002</v>
+        <v>0.005138574778244812</v>
       </c>
       <c r="T24">
-        <v>0.01673679122139002</v>
+        <v>0.005138574778244812</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H25">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I25">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J25">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N25">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O25">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P25">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q25">
-        <v>1767.569713568407</v>
+        <v>750.3203289205213</v>
       </c>
       <c r="R25">
-        <v>15908.12742211566</v>
+        <v>6752.882960284693</v>
       </c>
       <c r="S25">
-        <v>0.02285069243887453</v>
+        <v>0.006851054726793281</v>
       </c>
       <c r="T25">
-        <v>0.02285069243887453</v>
+        <v>0.006851054726793281</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H26">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N26">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O26">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P26">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q26">
-        <v>971.090698570399</v>
+        <v>2009.744366039866</v>
       </c>
       <c r="R26">
-        <v>8739.816287133592</v>
+        <v>18087.69929435879</v>
       </c>
       <c r="S26">
-        <v>0.01255401397350613</v>
+        <v>0.01835065385794988</v>
       </c>
       <c r="T26">
-        <v>0.01255401397350613</v>
+        <v>0.01835065385794988</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H27">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N27">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O27">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P27">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q27">
-        <v>1979.84606321103</v>
+        <v>2472.888514970831</v>
       </c>
       <c r="R27">
-        <v>17818.61456889928</v>
+        <v>22255.99663473748</v>
       </c>
       <c r="S27">
-        <v>0.02559494718622363</v>
+        <v>0.02257954888906964</v>
       </c>
       <c r="T27">
-        <v>0.02559494718622363</v>
+        <v>0.02257954888906964</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H28">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N28">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O28">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P28">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q28">
-        <v>2905.467142958388</v>
+        <v>3471.863874212294</v>
       </c>
       <c r="R28">
-        <v>26149.20428662549</v>
+        <v>31246.77486791065</v>
       </c>
       <c r="S28">
-        <v>0.0375611414731497</v>
+        <v>0.03170103286475732</v>
       </c>
       <c r="T28">
-        <v>0.0375611414731497</v>
+        <v>0.03170103286475732</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H29">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N29">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O29">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P29">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q29">
-        <v>1384.802185649597</v>
+        <v>1108.166828143037</v>
       </c>
       <c r="R29">
-        <v>12463.21967084637</v>
+        <v>9973.50145328733</v>
       </c>
       <c r="S29">
-        <v>0.01790237102958572</v>
+        <v>0.01011849378644394</v>
       </c>
       <c r="T29">
-        <v>0.01790237102958572</v>
+        <v>0.01011849378644394</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H30">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N30">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O30">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P30">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q30">
-        <v>2130.886887715853</v>
+        <v>2777.098857701694</v>
       </c>
       <c r="R30">
-        <v>19177.98198944268</v>
+        <v>24993.88971931524</v>
       </c>
       <c r="S30">
-        <v>0.02754756461340617</v>
+        <v>0.02535724479596869</v>
       </c>
       <c r="T30">
-        <v>0.02754756461340617</v>
+        <v>0.02535724479596869</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H31">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N31">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O31">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P31">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q31">
-        <v>2909.293678169066</v>
+        <v>3702.594022058419</v>
       </c>
       <c r="R31">
-        <v>26183.6431035216</v>
+        <v>33323.34619852577</v>
       </c>
       <c r="S31">
-        <v>0.03761060994872638</v>
+        <v>0.03380779288322717</v>
       </c>
       <c r="T31">
-        <v>0.03761060994872638</v>
+        <v>0.03380779288322718</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H32">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.38628533333333</v>
+        <v>22.18032933333333</v>
       </c>
       <c r="N32">
-        <v>40.158856</v>
+        <v>66.540988</v>
       </c>
       <c r="O32">
-        <v>0.0790701185256053</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="P32">
-        <v>0.07907011852560532</v>
+        <v>0.1293075712687413</v>
       </c>
       <c r="Q32">
-        <v>911.7171105956961</v>
+        <v>4570.460444982841</v>
       </c>
       <c r="R32">
-        <v>8205.453995361266</v>
+        <v>41134.14400484557</v>
       </c>
       <c r="S32">
-        <v>0.01178644730420435</v>
+        <v>0.04173214216422787</v>
       </c>
       <c r="T32">
-        <v>0.01178644730420435</v>
+        <v>0.04173214216422787</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H33">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.29177033333333</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N33">
-        <v>81.875311</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O33">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="P33">
-        <v>0.1612070459649248</v>
+        <v>0.1591064084032366</v>
       </c>
       <c r="Q33">
-        <v>1858.796026810226</v>
+        <v>5623.719779245966</v>
       </c>
       <c r="R33">
-        <v>16729.16424129204</v>
+        <v>50613.4780132137</v>
       </c>
       <c r="S33">
-        <v>0.0240300430524426</v>
+        <v>0.05134928441988824</v>
       </c>
       <c r="T33">
-        <v>0.0240300430524426</v>
+        <v>0.05134928441988824</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H34">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.05126633333333</v>
+        <v>38.31685533333334</v>
       </c>
       <c r="N34">
-        <v>120.153799</v>
+        <v>114.950566</v>
       </c>
       <c r="O34">
-        <v>0.2365748448668895</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="P34">
-        <v>0.2365748448668896</v>
+        <v>0.2233807905801933</v>
       </c>
       <c r="Q34">
-        <v>2727.823582708034</v>
+        <v>7895.539739076154</v>
       </c>
       <c r="R34">
-        <v>24550.41224437231</v>
+        <v>71059.85765168538</v>
       </c>
       <c r="S34">
-        <v>0.03526461063316797</v>
+        <v>0.07209290854188187</v>
       </c>
       <c r="T34">
-        <v>0.03526461063316797</v>
+        <v>0.07209290854188187</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H35">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.089213</v>
+        <v>12.230165</v>
       </c>
       <c r="N35">
-        <v>57.267639</v>
+        <v>36.690495</v>
       </c>
       <c r="O35">
-        <v>0.1127561752110562</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="P35">
-        <v>0.1127561752110563</v>
+        <v>0.07129979490382526</v>
       </c>
       <c r="Q35">
-        <v>1300.133807589474</v>
+        <v>2520.137754857813</v>
       </c>
       <c r="R35">
-        <v>11701.20426830527</v>
+        <v>22681.23979372032</v>
       </c>
       <c r="S35">
-        <v>0.01680779973686745</v>
+        <v>0.02301097412944773</v>
       </c>
       <c r="T35">
-        <v>0.01680779973686745</v>
+        <v>0.02301097412944773</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H36">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>29.373837</v>
+        <v>30.64915533333333</v>
       </c>
       <c r="N36">
-        <v>88.121511</v>
+        <v>91.94746599999999</v>
       </c>
       <c r="O36">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="P36">
-        <v>0.1735053986454552</v>
+        <v>0.1786793955144635</v>
       </c>
       <c r="Q36">
-        <v>2000.602043799426</v>
+        <v>6315.539774813752</v>
       </c>
       <c r="R36">
-        <v>18005.41839419484</v>
+        <v>56839.85797332377</v>
       </c>
       <c r="S36">
-        <v>0.02586327523294897</v>
+        <v>0.05766618197422178</v>
       </c>
       <c r="T36">
-        <v>0.02586327523294897</v>
+        <v>0.05766618197422178</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H37">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>40.10401433333333</v>
+        <v>40.863284</v>
       </c>
       <c r="N37">
-        <v>120.312043</v>
+        <v>122.589852</v>
       </c>
       <c r="O37">
-        <v>0.2368864167860688</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="P37">
-        <v>0.2368864167860689</v>
+        <v>0.2382260393295401</v>
       </c>
       <c r="Q37">
-        <v>2731.416159210938</v>
+        <v>8420.254738662741</v>
       </c>
       <c r="R37">
-        <v>24582.74543289844</v>
+        <v>75782.29264796468</v>
       </c>
       <c r="S37">
-        <v>0.03531105454997692</v>
+        <v>0.07688399714707653</v>
       </c>
       <c r="T37">
-        <v>0.03531105454997692</v>
+        <v>0.07688399714707654</v>
       </c>
     </row>
   </sheetData>
